--- a/biology/Écologie/Brousses_tropicales_élevées_d'Hawaï/Brousses_tropicales_élevées_d'Hawaï.xlsx
+++ b/biology/Écologie/Brousses_tropicales_élevées_d'Hawaï/Brousses_tropicales_élevées_d'Hawaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brousses_tropicales_%C3%A9lev%C3%A9es_d%27Hawa%C3%AF</t>
+          <t>Brousses_tropicales_élevées_d'Hawaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les brousses tropicales élevées d'Hawaï forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des prairies, savanes et brousses tropicales et subtropicales de l'écozone océanienne. Elle se situe dans les régions d'altitude de l'archipel hawaïen dans l'océan Pacifique.
